--- a/data/ES + technologies + education.xlsx
+++ b/data/ES + technologies + education.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Hmfkj+EFr2tGAPZ6oBXKUyJ+/NvUxX68VrpcWW85Wzo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="4vgcHKc5rU0KXUTCnsdgEOxtlkn60XuRGvt7b60j6nc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="821">
   <si>
     <t>Authors</t>
   </si>
@@ -750,15 +750,6 @@
     <t>Pamana Ka Sa Pilipinas (Pamana) is a grassroots fisherfolk alliance of Philippine Marine Protected Areas with more than 6,000 individual fisherfolk and their 30,000 family members. Access to food, education, and health services for Philippine fisherfolk families is directly dependant upon the fish harvest and related health of the marine environment. Pamana represents a unique ecohealth strategy, linking the health of coastal people and that of their surrounding marine ecosystem. Pamana's activities are viewed by both their membership and barangay (village) health workers as a contribution to nutritional and community health. The alliance has developed an approach to the empowerment of fisherfolk that has led to improvement in health, food security, and nutritional status of their communities. The development of Pamana provides a model for building capacity in other fishing- and resource-based cultures, through engagement and empowerment. In less developed countries, grassroots initiatives, such as Pamana, may be the only solution for sustainable fisheries contributions to food security, given the challenges of fisherfolk poverty, environmental degradation, and limited finances.</t>
   </si>
   <si>
-    <t>Holmes, K K; Puziss, M</t>
-  </si>
-  <si>
-    <t>Recommendations of the study group for research and training in sexually transmitted diseases.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Bailey, Ainsworth Anthony; Bonifield, Carolyn M.; Arias, Alejandro; Villegas, Juliana</t>
   </si>
   <si>
@@ -912,12 +903,6 @@
     <t>INTRODUCTION: This article reports findings of a project funded by the Australian National Council for Vocational Education Research. The project explores solutions to current and projected skills shortages within the health and community services sector, from a vocational education and training perspective. Its purpose is to locate, analyse and disseminate information about innovative models of health training and service delivery that have been developed in response to skill shortages.METHODS: The article begins with a brief overview of Australian statistics and literature on the structure of the national health workforce and perceived skill shortages. The impact of location (state and rurality), demographics of the workforce, and other relevant factors, on health skill shortages is examined. Drawing on a synthesis of the Australian and international literature on innovative and effective models for addressing health skill shortages and nominations by key stakeholders within the health sector, over 70 models were identified. The models represent a mixture of innovative service delivery models and training solutions from Australia, as well as international examples that could be transposed to the Australian context. They include the skill ecosystem approach facilitated by the Australian National Training Authority Skill Ecosystem Project. Models were selected to represent diversity in terms of the nature of skill shortage addressed, barriers overcome in development of the model, healthcare specialisations, and different customer groups.RESULTS: Key barriers to the development of innovative solutions to skills shortages identified were: policy that is not sufficiently flexible to accommodate changing workplace needs; unwillingness to risk take in order to develop new models; delays in gaining endorsement/accreditation; current vocational education and training (VET) monitoring and reporting systems; issues related to working in partnership, including different cultures, ways of operating, priorities and timelines; workplace culture that is resistant to change; and organisational boundaries. For training-only models, additional barriers were: technology; low educational levels of trainees; lack of health professionals to provide training and/or supervision; and cost of training. Key enhancers for the development of models were identified as: commitment by all partners and co-location of partners; or effective communication channels. Key enhancers for model effectiveness were: first considering work tasks, competencies and job (re)design; high profile of the model within the community; community-based models; cultural fit; and evidence of direct link between skills development and employment, for example VET trained aged care workers upskilling for other health jobs. For training only models, additional enhancers were flexibility of partners in accommodating needs of trainees; low training costs; experienced clinical supervisors; and the provision of professional development to trainers.CONCLUSIONS: There needs to be a balance between short-term solutions to current skill shortages (training only), and medium to longer term solutions (job redesign, holistic approaches) that also address projected skills shortages. Models that focus on addressing skills shortages in aged care can provide a broad pathway to careers in health. Characteristics of models likely to be effective in addressing skill shortages are: responsibility for addressing skills shortage is shared between the health sector, education and training organisations and government, with employers taking a proactive role; the training component is complemented by a focus on retention of workers; models are either targeted at existing employees or identify a target group(s) who may not otherwise have considered a career in health.</t>
   </si>
   <si>
-    <t>Mase, Carol A; Lloyd, James W; King, Lonnie J</t>
-  </si>
-  <si>
-    <t>Initial study results on future needs for leadership in veterinary medicine.</t>
-  </si>
-  <si>
     <t>Yi, Malan; Fang, Yao; Hu, Guoping; Liu, Shufeng; Ni, Jinren; Liu, Tang</t>
   </si>
   <si>
@@ -2271,15 +2256,6 @@
     <t>The rising growth of the urban population has triggered various social, economic, and environmental problems worldwide. The current challenge is to create sustainable cities without leaving anyone behind within the framework of the Sustainable Development Goals (SDG), more specifically ODS#11. In this context, the proposal is to design Smart Cities using interconnected Smart Systems to make the urban ecosystem more efficient and transform and improve citizens' quality of life and environment. The digitization of all services and processes with high technology increases the digital divide and puts at risk the inclusion of some groups, including the elderly and immigrants. The objective of this work is to analyze the integration of immigrants in Madrid Smart. This research has a qualitative-interpretative approach based on documentary reviews. The implementation of Madrid Smart City runs the risk of promoting inequality among the most vulnerable groups, including some groups of immigrants. The inclusion of all people in this new city model is essential for social cohesion and sustainability. Among the main challenges that Madrid Smart City has for immigrants' inclusion are closing gaps in advanced access to ICT, education, and citizen participation.</t>
   </si>
   <si>
-    <t>YUNOK, SONG</t>
-  </si>
-  <si>
-    <t>Expanding Chinese Children’s Literature  Focusing on ‘Pan-Entertainment’ and ‘Crossover’ of Children’s Literature</t>
-  </si>
-  <si>
-    <t>Chinese children’s literature is rapidly changing at the speed of light. I believe that this change in Chinese children’s books is closely related to the ecosystem of China’s new cultural content business, called ‘pan-entertainment’, and is a special situation in which China is seen at the time. Considering the possibility of the world’s largest children’s publishing market, the current trends of change in Chinese children’s literature reqiure research and attention. Therefore, this study aims: 1. to provide an understanding of the current status of Chinese children’s literature, which is being changed and expanded due to various crossover between media, serving as the basis for the study of Chinese children’s literature; 2. to reveal the essence and direction of children’s literature, identifying the point of change and expansion of Chinsese children’s literature at the time; 3. to summarize the concept of pan-entertainment, a Chinese-style crossover cultural brand, as an example of Chinese children’s literature.China’s pan-entertainment refers to a matrix-style business ecosystem that is reborn in various media formats, focusing on content that has formed a strong emotional bond with users. Among them, children’s literature is Blue Ocean, which can be used as a key IP(Intellectual Property) for pan-entertainment, and this is why I said that the change and expansion of Chinese children’s literature at the time is closely related to pan-entertainment. This study considers the case of expanding to cross-over with children’s literature and other media. 1. Weibo(微博) + Fairy Tale: Wei Fairy Tale(微童话) is an example of the possibility that when literature is combined with new media products, readers can become writers, and that not only text-oriented fairy tales with a lot of writing can be fairy tales, but also short image-oriented fairy tales can be. 2. Smartphone APP + Picture Book: Kada Story(咔哒故事) is growing remarkably with various star IPs of pan-entertainment, but the service that focuses on early education is characterized as a hot media. 3. IP Market + Children’s Novel: ‘Mixiaoquan(米小圈) Series’ is a symbol of elementary school students of the time when literary content is active under various licenses. This is an example of how important literary IP is in the pan-entertainment ecosystem that has gained children’s consensus. 4. Internet Games + Literature: Online Game Children’s Literature(網遊文學) is a literary content created for children’s users who have experienced online games, and it is an attempt to expand the playing media to reading media. It is a transition of the creator’s mindset and a reversal of the style of chldren’s literature, which traditionally was unilateral and centralized. 5. Literature + Experience Activities: ‘Umji Banjang(拇指班長) Series’, the award-winning elementary school senior novel, expanded its user experience with a pan-entertainment strategy to include comic versions, watching animations with QR codes, activity filming Umji Banjang’s films at summer vacation theme camps, listening to radio dramas on writing topics, Umji Banjang theme bookstores and milk tea cafes.The main body of Chinese children’s literature has gone through national ideology and educational socialization messages, and is now shifting to a clever commercial media strategy that seeks commercial profit. Nevertheless, the epistemological changes brought by new media technology leave open the possibility that children can stand as the Subjects. Although it is due to commerciality, as literature and multimedia experiences are diversified, children’s consumers become the true Subjects.</t>
-  </si>
-  <si>
     <t>Selvakumaran, Sureka; Thompson-Hodgetts, Sandy; Nicholas, David; Fan, Lloyd; Fang, Hanna; Di Rezze, Briano</t>
   </si>
   <si>
@@ -2415,24 +2391,6 @@
     <t>Background Following the trend in the consumer product industry, an increasing number of projects developed by industrial design students is now exploring the potential uses of IoT technology. For design students and educators, the IoT represents a radical shift in the design and development of products; whereas products were traditionally isolated or only interacting with their immediate surrounding, connected products rely on interdependent ecosystems of objects, sensors and databases dispersed far and wide and are capable of ever more complex behaviors. This article attempts to uncover some of the issues that still prevent the public from acquiring IoT products and that young designers and design educators may want to address in order to develop rewarding, safe and sustainable IoT product experiences.Methods Using interviews and surveys, this article gathers the opinions, expectations and concerns of young and middle-aged Korean consumers in using connected products and services.Results Korean consumers both young and old seem quite pragmatic when it comes to embracing the IoT; they are mostly ready to accept connected devices and a variety of new services, but show a clear preference for products designed for comfort and ease of use. As for any product, the relationship between cost and perceived value is an essential aspect of the purchase of IoT devices. However, for increasingly well-informed consumers, issues of privacy, usability, as well as reliability, maintenance, health impact, energy consumption have become important purchase criteria that may orient consumers towards competing products.Conclusions The result of this survey indicates that a large part of young designers does not intuitively choose to tackle those issues and therefore design educators may want to specifically develop strategies to address and integrate them to the development of connected products. Doing so and in order to compete in an increasingly crowded market, designers may take both technical advantages of the IoT technology as well as desires and concerns of the consumers into careful consideration in order to develop appealing, rewarding, convenient, safe and sustainable products and services.</t>
   </si>
   <si>
-    <t>Yang, Sung-Byung; 강려은</t>
-  </si>
-  <si>
-    <t>A Study on the Influence of IT Education Service Quality on Educational Satisfaction, Work Application Intention, and Recommendation Intention: Focusing on the Moderating Effects of Learner Position and Participation Motivation</t>
-  </si>
-  <si>
-    <t>The fourth industrial revolution represents a revolutionary change in the business environment and its ecosystem, which is a fusion of Information Technology (IT) and other industries. In line with these recent changes, the Ministry of Employment and Labor of South Korea announced ‘the Fourth Industrial Revolution Leader Training Program,’ which includes five key support areas such as (1) smart manufacturing, (2) Internet of Things (IoT), (3) big data including Artificial Intelligence (AI), (4) information security, and (5) bio innovation. Based on this program, we can get a glimpse of the South Korean government’s efforts and willingness to emit leading human resource with advanced IT knowledge in various fusion technology-related and newly emerging industries. On the other hand, in order to nurture excellent IT manpower in preparation for the fourth industrial revolution, the role of educational institutions capable of providing high quality IT education services is most of importance. However, these days, most IT educational institutions have had difficulties in providing customized IT education services that meet the needs of consumers (i.e., learners), without breaking away from the traditional framework of providing supplier-oriented education services. From previous studies, it has been found that the provision of customized education services centered on learners leads to high satisfaction of learners, and that higher satisfaction increases not only task performance and the possibility of business application but also learners’ recommendation intention. However, since research has not yet been conducted in a comprehensive way that consider both antecedent and consequent factors of the learner's satisfaction, more empirical research on this is highly desirable. With the advent of the fourth industrial revolution, a rising interest in various convergence technologies utilizing information technology (IT) has brought with the growing realization of the important role played by IT-related education services. However, research on the role of IT education service quality in the context of IT education is relatively scarce in spite of the fact that research on general education service quality and satisfaction has been actively conducted in various contexts.In this study, therefore, the five dimensions of IT education service quality (i.e., tangibles, reliability, responsiveness, assurance, and empathy) are derived from the context of IT education, based on the SERVPERF model and related previous studies. In addition, the effects of these detailed IT education service quality factors on learners’ educational satisfaction and their work application/recommendation intentions are examined. Furthermore, the moderating roles of learner position (i.e., practitioner group vs.manager group) and participation motivation (i.e., voluntary participation vs. involuntary participation) in relationships between IT education service quality factors and learners’ educational satisfaction, work application intention, and recommendation intention are also investigated. In an analysis using the structural equation model (SEM) technique based on a questionnaire given to 203 participants of IT education programs in an ‘M’ IT educational institution in Seoul, South Korea, tangibles, reliability, and assurance were found to have a significant effect on educational satisfaction. This educational satisfaction was found to have a significant effect on both work application intention and recommendation intention. Moreover, it was discovered that learner position and participation motivation have a partial moderating impact on the relationship between IT education service quality factors and educational satisfaction. This study holds academic implications in that it is one of the first studies to apply the SERVPERF model (rather than the SERVQUAL model, which has been widely adopted by prior studies) is to demonstrate the influence of IT education service quality on learners’ educational satisfaction, work application intention, and recommendation intention in an IT education environment. The results of this study are expected to provide practical guidance for IT education service providers who wish to enhance learners’ educational satisfaction and service management efficiency.</t>
-  </si>
-  <si>
-    <t>이옥기</t>
-  </si>
-  <si>
-    <t>The Study on the Distribution of SmartTV Contents</t>
-  </si>
-  <si>
-    <t>Smart TV will be an IoT basic platform and smart home hub that covers various industries such as broadcasting, shopping, education, medical, media and remote control by interworking with various peripheral devices. Therefore, the integrated structure of the value chain that distributes the contents including the program through the Internet-based platform is applied to the smart TV.The purpose of this study is to explore how to distribute contents for smart TV regardless of media. As a result, institutional problems such as the closed distribution policy of terrestrial content, the failure of telecommunication companies to adhere to the principle of network neutrality, and the smart TV ecosystem centered on TV manufacturers have arisen. On the manufacturing side, it was difficult for small-scale app developers to develop their technology and smart TV apps were difficult to charge. In terms of consumers, the burden of purchasing new smart TVs was a factor that impeded distribution.In order to improve the smart TV, it is necessary to activate the application and use of the smart TV, and it is necessary to support technology development support for smart TV content provider and application development promotion. Also, it is necessary to comply with the network neutrality of the telecommunication service provider, And that there is a need for an institutional It was also suggested that a government support system for technology development for promoting smart TV application development is needed.</t>
-  </si>
-  <si>
     <t>Byung-Min, Lee，</t>
   </si>
   <si>
@@ -2460,15 +2418,6 @@
     <t>This paper discusses three major issues concerning transcreation. First and foremost, the term transcreation and the conceptual elements thereof are identified from three sources of data, namely transcreation service providers (business), transcreators (translators), and translation scholars (academia). Second, potential implications of advances in translation technology, especially in automatic machine translation, are explored in terms of transcreation vs translation. Third, the rationale for and implications of introducing transcreator education are discussed in detail, considering the direction in which the translation ecosystem is changing.</t>
   </si>
   <si>
-    <t>한정엽</t>
-  </si>
-  <si>
-    <t>A Study on Development of HMD Interactive Contents Based on Virtual Reality - Focusing on Tour of Namseoul University Campus -</t>
-  </si>
-  <si>
-    <t>(Background and Purpose)There has been a soaring demand in the market for VR content area in 2016, the starting year of growth in VR(Virtual Reality) ecosystem. However, there is a lack of contents in terms of both quantity and quality as VR content development in Korea has been led primarily by small and medium-sized enterprises. Under those circumstances, the purpose of this study was to present production and detailed workflow systematically in connection with development of Namseoul University campus VR contents targeting freshmen for the purpose of VR commercialization. (Method)1) Types of HMD and VR environment configuration conditions were presented on the basis of virtual reality(VR) theory. 2) The researcher analyzed subjects of each content, producers, content production techniques and characteristics in order to derive production techniques and scenario applicable to contents of VR common platform. 3) The production and detailed workflow were presented systematically based on case analysis in relation to development of interactive VR contents for campus of N University. (Results)The system and systematic stages for production of N University campus VR contents were as follows: 1) The intention of VR content development was to allow freshmen of N University to gain proactive experience with virtual campus tour. For that, a lot of experience-related information was provided regarding the location, names, purposes, etc., of buildings. 2) For shooting equipments, the researcher prepared 7 units of GoPro with an output of up to 4K, holders, remote controllers, battery chargers, SD cards, tripods, etc. Edition in latter part of process can be facilitated when subjects are at least 2m apart from each other in the case of 360Â° VR shooting. It is important to ensure that staffs are hidden so as to prevent them from being captured by camera. 3) 360Â° stitching and special effect(VFX) is a process to convert 7 images into single 360Â° image through stitching procedure. It requires special technique involving the use of 4 programs and therefore constant research is needed. 4) The latter part of process enabling the experience of 360Â° VR image through HMD was designed with engines such as unity or unreal, etc. (Conclusions) Based on the results of this study, the course of VR content development can be presented as below: 1) Interactive space design which combines virtual contents and real space can be created by using LBS(Location Based Service) and motion recognition technology(Kinect), etc. 2) 360Â° image has been evolving into 360Â° real-life shooting, 360Â° selective and 360Â° mobile contents, and also developing into converged contents such as 360Â° image + 3D modeling, 360Â° image + interaction, etc. 3) Images shoot at 360Â° can find various applications such as many different VR devices, 360Â° web, etc. Based on overall consideration of aforesaid results, HMD-based VR interactive contents are evolving into interactive information space combined with real space through development of image shooting technology, VR technology, and devices. Thus, HMD-based VR interactive contents are expected to develop into virtual training spatial design, virtual entertainment spatial design, virtual interactive entertainment spatial design, virtual interactive education spatial design, etc., and researches need to be carried out on those spatial designs.</t>
-  </si>
-  <si>
     <t>Kim, Jeong-Gyu; Lee, Woo-Kyun</t>
   </si>
   <si>
@@ -2496,24 +2445,6 @@
     <t>This research describes strategies to promote the growth of the Big Data industry and the companies within the ecosystem. In doing so, we identify the roles and responsibilities of various objects of this ecosystem and Big Data concepts. We describe the five components of the Big Data ecosystem: governance, data holders, service users, service providers and infrastructure providers. Related to the Big Data industry, the paper discusses 13 business strategies between the five components in the ecosystem. These strategies directly respond to areas of research by the Big Data industry leading experts on its early development. These strategies focus on how companies can gain competitive advantages in a growing new business environment of Big Data. The strategy topics are as follows: 1) the government's long term policy, 2) building Big Data support centers, 3) policy support and improving the legal system, 4) improving the Privacy Act, 5) increasing the understanding of Big Data, 6) Big Data support excavation projects, 7) professional manpower education, 8) infrastructure system support, 9) data distribution and leverage support, 10) data quality management, 11) business support services development, 12) technology research and excavation, 13) strengthening the foundation of Big Data technology. Of the proposed strategies, establishing supportive government policies is essential to the successful growth of thee Big Data industry. This study fosters a better understanding of the Big Data ecosystem and its potential to increases the competitive advantage of companies.</t>
   </si>
   <si>
-    <t>Nah, Ken; 전영옥</t>
-  </si>
-  <si>
-    <t>Policies supporting design to vitalize ‘one-man designer creation business’ - Focus on a startup, ‘one-man creation business’ in design and fashion at the DaeguGyeongbuk Design Center–</t>
-  </si>
-  <si>
-    <t>A one-man creation business based on one’s highly developed professional skills and creativity has an industrial structure focused on the organization and the system. However, now it emerges as a future organization model that creates new jobs and high values by generating contents involved with creation and technology, product development, distribution, and service offer. In the design industry, a knowledge- based capital society of creative economy, cultivating a designer-centric one-man creation business is focused on diversifying business by blending itself with other businesses and creating a new industrial ecosystem. This study analyzed obstacles associated with the business steps including industrialization capital, mentoring program, founder education, marketing, distribution and new market opening through the example of a startup, ‘one-man designer creation business’ in design and fashion at the DaeguGyeongbuk Design Center. This study also suggested points for improving such obstacles. Ultimately, policies supporting design for the vitalization of ‘one-man designer creation business’ should be the foundation to foster designers as creative entrepreneurs. Furthermore, the present supporting policies of government are only focused on commercialization of ideas and job creation. Therefore, it is expected that government policies supporting design can promote the advanced concept business model that can serve as the core of the design industry paradigm.</t>
-  </si>
-  <si>
-    <t>정건용</t>
-  </si>
-  <si>
-    <t>A Study on the as a Medium of Regional Development Construction Methods of Craft Culture Industrial Clusters -Focused on Honam Region-</t>
-  </si>
-  <si>
-    <t>While top-down indiscriminate development policies which focused on industry infrastructure were prevalent to develop specific regions in the past, there is growing concern about bottom-up development policies based on regional characteristics and field. For bottom-up development, local governments have executed the culture industry which is regarded as valuable in step-by-step according to cluster construction, but there has been little research on the construction of broad culture industry as craft culture industrial clusters.This study aims to suggest the methods to construct craft culture industrial clusters for the vitalization of the craft industry in the Honam region that is the hub of culture creation. In order to achieve this purpose, the situations of regional conditions and the importance and recognition of participants were investigated and analyzed in relation with necessary factors for cluster construction suggested by M. Porter : factor conditions, demand conditions, related and supporting industries, firm strategy and rivalry. Finally, the followings could be suggested.First, the result of investigating situations indicated that the Honam region was the second highest condition of constructing craft culture industrial clusters next to the Seoul/Metropolitan region and was higher in several items including market share and turnover than other regions. It demonstrated construction factors.Second, the result of recognition analysis indicated that both groups recognized ‘establishment of distribution system to sell craft culture products’ as important. Thus it provides important suggestion to present further construction method.Based on the results of investigation and analysis, this study proposed two construction methods: ‘mutual collaboration approach by construction subject’ and ‘detailed actions the construction of craft culture industrial clusters’ in relation with regional conditions and structure of culture industrial cluster. First, in the mutual collaboration approach by construction subject, the production of craft culture products, the development and invitation of distribution specialist, network building with companies and supporting institutions, company supporting service was suggested in relation with ‘private-led promotion’, while the improvement of related legislation, incentive payment to local governments, and the presentation of continuous perspective was suggested as ‘the roles of central government’. In detailed actions the construction of craft culture industrial clusters, first, for ‘consideration for location selection’, accessibility for construction subjects and consumers, connection with successful festivals in consideration of artificial construction, and extension to assure a further base was suggested. Second, ‘facilities and infrastructure building’ included ① business halls to play a landmark role of craft culture industrial cluster and recognition for the establishment of exhibition and distribution system, ② the establishment of creative studio and ecosystem creation for exchange and connection with colleges for creativity and education facilities, and ③ the support and operation of craft centers for sales and visitors’ experience and equipment support office as a production and manufacture base but it was recommended to invite professionals by field and professional companies. Third, ‘R&amp;D based and company support service’ suggested the source development to develop craft culture products design, design-based technique research through converging technologies, and domestic or foreign related information service. Finally, ‘professional cultivation program’ should be provided as the star designers or masters to develop next culture products and on-site needs satisfying 1:1 apprentice training by material/item to stress the characteristics of craft culture products.This study is meaningful because construction methods were presented on a macro basis according to the cluster theory even in the lack of research on craft culture industry cluster. This study will be used for further research on detailed construction methods and analysis of performance factors after constructing clusters.</t>
-  </si>
-  <si>
     <t>Kohler, Thomas</t>
   </si>
   <si>
@@ -2521,15 +2452,6 @@
   </si>
   <si>
     <t>The Centre for Development and Environment (CDE) is the University of Bern's center for sustainable development research. Founded in 1988 as a part of the Institute of Geography, CDE became an interdisciplinary university center in 2009. Its current overall aim is to foster sustainable development-oriented research across various institutes and departments of the University of Bern. In view of this new mandate, CDE devised a new strategy focusing on 6 strategic themes. These are explored and advanced by groups of researchers organized in thematic clusters. Three of the 6 clusters address sustainable development from a comprehensive perspective: global change impacts, innovations for sustainable development, and education for sustainable development. These clusters are complemented by 3 clusters that investigate sustainable development with a specialized perspective: natural resources and ecosystem services, multidimensional disparities, and governance of land and natural resources.</t>
-  </si>
-  <si>
-    <t>Noh,, Kyoo-Sung; 주성환</t>
-  </si>
-  <si>
-    <t>A Preliminary Study on Promoting Policy for New IT Convergence Industry based on Brain Science</t>
-  </si>
-  <si>
-    <t>The New IT industry based on Brain Science, a new industry combined with brain science and IT, will develop new IT services based on Brain Science. And this industry will become the new growth engine industry. This study examines the vision/strategies of policy for the New IT Convergence Industry based on Brain Science. Therefore this article's purposes are below; first, structuring the ecosystem for New IT industry based on Brain Science, second, classifying the service types of this industry, and last, suggesting of promotion policy for this industry.</t>
   </si>
   <si>
     <t>Getchis, Tessa S.; Monahan, Edward C.</t>
@@ -3966,7 +3888,7 @@
         <v>245</v>
       </c>
       <c r="C82" s="2">
-        <v>1980.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>246</v>
@@ -3994,7 +3916,7 @@
         <v>251</v>
       </c>
       <c r="C84" s="2">
-        <v>2022.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>252</v>
@@ -4022,7 +3944,7 @@
         <v>257</v>
       </c>
       <c r="C86" s="2">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>258</v>
@@ -4036,7 +3958,7 @@
         <v>260</v>
       </c>
       <c r="C87" s="2">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>261</v>
@@ -4064,7 +3986,7 @@
         <v>266</v>
       </c>
       <c r="C89" s="2">
-        <v>2019.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>267</v>
@@ -4078,7 +4000,7 @@
         <v>269</v>
       </c>
       <c r="C90" s="2">
-        <v>2014.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>270</v>
@@ -4092,7 +4014,7 @@
         <v>272</v>
       </c>
       <c r="C91" s="2">
-        <v>2022.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>273</v>
@@ -4106,7 +4028,7 @@
         <v>275</v>
       </c>
       <c r="C92" s="2">
-        <v>2023.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>276</v>
@@ -4120,7 +4042,7 @@
         <v>278</v>
       </c>
       <c r="C93" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>279</v>
@@ -4134,7 +4056,7 @@
         <v>281</v>
       </c>
       <c r="C94" s="2">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>282</v>
@@ -4148,7 +4070,7 @@
         <v>284</v>
       </c>
       <c r="C95" s="2">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>285</v>
@@ -4162,7 +4084,7 @@
         <v>287</v>
       </c>
       <c r="C96" s="2">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>288</v>
@@ -4176,7 +4098,7 @@
         <v>290</v>
       </c>
       <c r="C97" s="2">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>291</v>
@@ -4190,7 +4112,7 @@
         <v>293</v>
       </c>
       <c r="C98" s="2">
-        <v>2015.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>294</v>
@@ -4204,7 +4126,7 @@
         <v>296</v>
       </c>
       <c r="C99" s="2">
-        <v>2007.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>297</v>
@@ -4218,1583 +4140,1583 @@
         <v>299</v>
       </c>
       <c r="C100" s="2">
-        <v>2003.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C101" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C102" s="2">
         <v>2021.0</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C103" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C104" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C105" s="2">
         <v>2020.0</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C106" s="2">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C107" s="2">
-        <v>2020.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C108" s="2">
-        <v>2019.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C109" s="2">
-        <v>2015.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C110" s="2">
-        <v>2012.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C111" s="2">
-        <v>2022.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C112" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C113" s="2">
         <v>2020.0</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C114" s="2">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C115" s="2">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C116" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C117" s="2">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C118" s="2">
-        <v>2018.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C119" s="2">
-        <v>2016.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C120" s="2">
-        <v>2013.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C121" s="2">
         <v>2021.0</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C122" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C123" s="2">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C124" s="2">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C125" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C126" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C127" s="2">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C128" s="2">
-        <v>2018.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C129" s="2">
-        <v>2015.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C130" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C131" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C132" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C133" s="2">
         <v>2021.0</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C134" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C135" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C136" s="2">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C137" s="2">
-        <v>2020.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C138" s="2">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C139" s="2">
-        <v>2016.0</v>
+        <v>2005.0</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C140" s="2">
-        <v>2015.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C141" s="2">
-        <v>2005.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C142" s="2">
         <v>2022.0</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C143" s="2">
         <v>2022.0</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C144" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C145" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C146" s="2">
         <v>2021.0</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C147" s="2">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C148" s="2">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C149" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C150" s="2">
-        <v>2019.0</v>
+        <v>2003.0</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C151" s="2">
-        <v>2018.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C152" s="2">
-        <v>2003.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C153" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C154" s="2">
         <v>2022.0</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C155" s="2">
         <v>2022.0</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C156" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C157" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C158" s="2">
         <v>2021.0</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C159" s="2">
         <v>2021.0</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C160" s="2">
         <v>2021.0</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C161" s="2">
         <v>2021.0</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C162" s="2">
         <v>2021.0</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C163" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C164" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C165" s="2">
         <v>2020.0</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C166" s="2">
         <v>2020.0</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C167" s="2">
         <v>2020.0</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C168" s="2">
         <v>2020.0</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C169" s="2">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C170" s="2">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C171" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C172" s="2">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C173" s="2">
-        <v>2018.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C174" s="2">
-        <v>2017.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C175" s="2">
         <v>2023.0</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C176" s="2">
         <v>2023.0</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C177" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C178" s="2">
         <v>2023.0</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C179" s="2">
         <v>2022.0</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C180" s="2">
         <v>2023.0</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C181" s="2">
         <v>2022.0</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C182" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C183" s="2">
         <v>2022.0</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C184" s="2">
         <v>2022.0</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C185" s="2">
         <v>2022.0</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C186" s="2">
         <v>2022.0</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C187" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C188" s="2">
         <v>2022.0</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C189" s="2">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C190" s="2">
-        <v>2022.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C191" s="2">
-        <v>2022.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C192" s="2">
         <v>2020.0</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C193" s="2">
         <v>2020.0</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C194" s="2">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C195" s="2">
-        <v>2020.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C196" s="2">
-        <v>2018.0</v>
+        <v>1990.0</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C197" s="2">
-        <v>2011.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C198" s="2">
-        <v>1990.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C199" s="2">
         <v>2023.0</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C200" s="2">
         <v>2023.0</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C201" s="2">
         <v>2023.0</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C202" s="2">
         <v>2023.0</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C203" s="2">
         <v>2023.0</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C204" s="2">
         <v>2023.0</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C205" s="2">
         <v>2023.0</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C206" s="2">
         <v>2023.0</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C207" s="2">
         <v>2023.0</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C208" s="2">
         <v>2023.0</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C209" s="2">
         <v>2023.0</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C210" s="2">
         <v>2023.0</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C211" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C212" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="213" ht="12.75" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>636</v>
+        <v>178</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>637</v>
@@ -5803,26 +5725,26 @@
         <v>2022.0</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>638</v>
+        <v>180</v>
       </c>
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="C214" s="2">
         <v>2022.0</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>178</v>
+        <v>641</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>642</v>
@@ -5831,960 +5753,888 @@
         <v>2022.0</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>180</v>
+        <v>643</v>
       </c>
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C216" s="2">
         <v>2022.0</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C217" s="2">
         <v>2022.0</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="218" ht="12.75" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C218" s="2">
         <v>2022.0</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C219" s="2">
         <v>2022.0</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C220" s="2">
         <v>2022.0</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="221" ht="12.75" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C221" s="2">
         <v>2022.0</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="222" ht="12.75" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C222" s="2">
         <v>2022.0</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="223" ht="12.75" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C223" s="2">
         <v>2022.0</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="224" ht="12.75" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C224" s="2">
         <v>2022.0</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="225" ht="12.75" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C225" s="2">
         <v>2022.0</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="226" ht="12.75" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C226" s="2">
         <v>2022.0</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="227" ht="12.75" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C227" s="2">
         <v>2022.0</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="228" ht="12.75" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C228" s="2">
         <v>2022.0</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="229" ht="12.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C229" s="2">
         <v>2022.0</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="230" ht="12.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C230" s="2">
         <v>2022.0</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="231" ht="12.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C231" s="2">
         <v>2022.0</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="232" ht="12.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C232" s="2">
         <v>2022.0</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="233" ht="12.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C233" s="2">
         <v>2022.0</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="234" ht="12.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C234" s="2">
         <v>2022.0</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="235" ht="12.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C235" s="2">
         <v>2022.0</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="236" ht="12.75" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C236" s="2">
         <v>2022.0</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="237" ht="12.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C237" s="2">
         <v>2022.0</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="238" ht="12.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C238" s="2">
         <v>2022.0</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="239" ht="12.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C239" s="2">
         <v>2022.0</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="240" ht="12.75" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C240" s="2">
         <v>2022.0</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="241" ht="12.75" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C241" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="242" ht="12.75" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C242" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="243" ht="12.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C243" s="2">
         <v>2021.0</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="244" ht="12.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C244" s="2">
         <v>2021.0</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="245" ht="12.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C245" s="2">
         <v>2021.0</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="246" ht="12.75" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C246" s="2">
         <v>2021.0</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="247" ht="12.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C247" s="2">
         <v>2021.0</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="248" ht="12.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C248" s="2">
         <v>2021.0</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="249" ht="12.75" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C249" s="2">
         <v>2021.0</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="250" ht="12.75" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C250" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="251" ht="12.75" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C251" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="252" ht="12.75" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C252" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="253" ht="12.75" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C253" s="2">
         <v>2020.0</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="254" ht="12.75" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C254" s="2">
         <v>2020.0</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="255" ht="12.75" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C255" s="2">
         <v>2020.0</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="256" ht="12.75" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C256" s="2">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="257" ht="12.75" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C257" s="2">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="258" ht="12.75" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C258" s="2">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="259" ht="12.75" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C259" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="260" ht="12.75" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C260" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C261" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="262" ht="12.75" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C262" s="2">
         <v>2018.0</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="263" ht="12.75" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C263" s="2">
         <v>2018.0</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="264" ht="12.75" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C264" s="2">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="265" ht="12.75" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C265" s="2">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="266" ht="12.75" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C266" s="2">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="267" ht="12.75" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C267" s="2">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="268" ht="12.75" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C268" s="2">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="269" ht="12.75" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C269" s="2">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="270" ht="12.75" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C270" s="2">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="271" ht="12.75" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C271" s="2">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="272" ht="12.75" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C272" s="2">
-        <v>2016.0</v>
+        <v>2008.0</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="273" ht="12.75" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C273" s="2">
-        <v>2016.0</v>
+        <v>2005.0</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="274" ht="12.75" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C274" s="2">
-        <v>2015.0</v>
+        <v>1999.0</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="275" ht="12.75" customHeight="1">
-      <c r="A275" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="C275" s="2">
-        <v>2014.0</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>822</v>
-      </c>
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="1"/>
     </row>
     <row r="276" ht="12.75" customHeight="1">
-      <c r="A276" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="C276" s="2">
-        <v>2014.0</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>825</v>
-      </c>
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="1"/>
     </row>
     <row r="277" ht="12.75" customHeight="1">
-      <c r="A277" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="C277" s="2">
-        <v>2014.0</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>828</v>
-      </c>
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="1"/>
     </row>
     <row r="278" ht="12.75" customHeight="1">
-      <c r="A278" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="C278" s="2">
-        <v>2013.0</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>831</v>
-      </c>
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="1"/>
     </row>
     <row r="279" ht="12.75" customHeight="1">
-      <c r="A279" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="C279" s="2">
-        <v>2012.0</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>834</v>
-      </c>
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="1"/>
     </row>
     <row r="280" ht="12.75" customHeight="1">
-      <c r="A280" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="C280" s="2">
-        <v>2012.0</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>837</v>
-      </c>
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="1"/>
     </row>
     <row r="281" ht="12.75" customHeight="1">
-      <c r="A281" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="C281" s="2">
-        <v>2008.0</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>840</v>
-      </c>
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="1"/>
     </row>
     <row r="282" ht="12.75" customHeight="1">
-      <c r="A282" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="C282" s="2">
-        <v>2005.0</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>843</v>
-      </c>
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="1"/>
     </row>
     <row r="283" ht="12.75" customHeight="1">
-      <c r="A283" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="C283" s="2">
-        <v>1999.0</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>846</v>
-      </c>
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="1"/>
     </row>
     <row r="284" ht="12.75" customHeight="1">
       <c r="A284" s="1"/>
@@ -11027,60 +10877,6 @@
       <c r="B990" s="1"/>
       <c r="C990" s="2"/>
       <c r="D990" s="1"/>
-    </row>
-    <row r="991" ht="12.75" customHeight="1">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
-      <c r="C991" s="2"/>
-      <c r="D991" s="1"/>
-    </row>
-    <row r="992" ht="12.75" customHeight="1">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="C992" s="2"/>
-      <c r="D992" s="1"/>
-    </row>
-    <row r="993" ht="12.75" customHeight="1">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="C993" s="2"/>
-      <c r="D993" s="1"/>
-    </row>
-    <row r="994" ht="12.75" customHeight="1">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="2"/>
-      <c r="D994" s="1"/>
-    </row>
-    <row r="995" ht="12.75" customHeight="1">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="C995" s="2"/>
-      <c r="D995" s="1"/>
-    </row>
-    <row r="996" ht="12.75" customHeight="1">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="C996" s="2"/>
-      <c r="D996" s="1"/>
-    </row>
-    <row r="997" ht="12.75" customHeight="1">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="2"/>
-      <c r="D997" s="1"/>
-    </row>
-    <row r="998" ht="12.75" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="1"/>
-    </row>
-    <row r="999" ht="12.75" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
